--- a/doc/cloud-monitor-calcs.xlsx
+++ b/doc/cloud-monitor-calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="860" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="80" yWindow="-16660" windowWidth="25440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <t>Selected Option: p=1, c=1, ma=2</t>
   </si>
   <si>
-    <t>+ 60 secs for miner to start hashing</t>
+    <t>inc 60 secs for miner to start hashing</t>
   </si>
 </sst>
 </file>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1127,8 @@
       </c>
       <c r="Y7" s="19"/>
       <c r="Z7" s="1">
-        <v>40</v>
+        <f>40+60</f>
+        <v>100</v>
       </c>
       <c r="AA7" s="18" t="s">
         <v>30</v>
@@ -1174,7 +1175,8 @@
       </c>
       <c r="Y8" s="19"/>
       <c r="Z8" s="1">
-        <v>90</v>
+        <f>90+60</f>
+        <v>150</v>
       </c>
       <c r="AA8" s="18" t="s">
         <v>30</v>

--- a/doc/cloud-monitor-calcs.xlsx
+++ b/doc/cloud-monitor-calcs.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -564,16 +565,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -914,39 +915,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="X2" s="15" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="X2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
@@ -991,10 +992,10 @@
       <c r="O4" s="10">
         <v>12</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1130,7 +1131,7 @@
         <f>40+60</f>
         <v>100</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1178,7 +1179,7 @@
         <f>90+60</f>
         <v>150</v>
       </c>
-      <c r="AA8" s="18" t="s">
+      <c r="AA8" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1255,11 +1256,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="X10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
